--- a/data/7077.xlsx
+++ b/data/7077.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1215"/>
+  <dimension ref="A1:I1216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43073,6 +43073,41 @@
         <v>40400</v>
       </c>
     </row>
+    <row r="1216">
+      <c r="A1216" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1216" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1216" t="inlineStr">
+        <is>
+          <t>7077</t>
+        </is>
+      </c>
+      <c r="D1216" t="inlineStr">
+        <is>
+          <t>KPPROP</t>
+        </is>
+      </c>
+      <c r="E1216" t="n">
+        <v>0.855</v>
+      </c>
+      <c r="F1216" t="n">
+        <v>0.855</v>
+      </c>
+      <c r="G1216" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="H1216" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="I1216" t="n">
+        <v>138400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7077.xlsx
+++ b/data/7077.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1216"/>
+  <dimension ref="A1:I1217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43108,6 +43108,41 @@
         <v>138400</v>
       </c>
     </row>
+    <row r="1217">
+      <c r="A1217" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1217" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1217" t="inlineStr">
+        <is>
+          <t>7077</t>
+        </is>
+      </c>
+      <c r="D1217" t="inlineStr">
+        <is>
+          <t>KPPROP</t>
+        </is>
+      </c>
+      <c r="E1217" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="F1217" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G1217" t="n">
+        <v>0.845</v>
+      </c>
+      <c r="H1217" t="n">
+        <v>0.845</v>
+      </c>
+      <c r="I1217" t="n">
+        <v>137600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7077.xlsx
+++ b/data/7077.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43143,6 +43143,41 @@
         <v>137600</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>7077</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>KPPROP</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.845</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.845</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>179200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7077.xlsx
+++ b/data/7077.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43178,6 +43178,41 @@
         <v>179200</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>7077</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>KPPROP</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.845</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>46500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7077.xlsx
+++ b/data/7077.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43213,6 +43213,41 @@
         <v>46500</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>7077</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>KPPROP</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.855</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>83400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7077.xlsx
+++ b/data/7077.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43248,6 +43248,41 @@
         <v>83400</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>7077</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>KPPROP</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.845</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.845</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>194500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7077.xlsx
+++ b/data/7077.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43283,6 +43283,41 @@
         <v>194500</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>7077</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>KPPROP</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>87900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7077.xlsx
+++ b/data/7077.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43318,6 +43318,41 @@
         <v>87900</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>7077</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>KPPROP</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.835</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.835</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.835</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.835</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>81600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7077.xlsx
+++ b/data/7077.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43353,6 +43353,41 @@
         <v>81600</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>7077</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>KPPROP</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.835</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.835</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.835</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>26400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7077.xlsx
+++ b/data/7077.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43388,6 +43388,41 @@
         <v>26400</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>7077</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>KPPROP</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>85600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7077.xlsx
+++ b/data/7077.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43423,6 +43423,41 @@
         <v>85600</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>7077</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>KPPROP</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>284300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7077.xlsx
+++ b/data/7077.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43458,6 +43458,41 @@
         <v>284300</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>7077</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>KPPROP</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>47800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7077.xlsx
+++ b/data/7077.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43493,6 +43493,76 @@
         <v>47800</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>7077</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>KPPROP</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>316600</v>
+      </c>
+    </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>7077</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>KPPROP</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.755</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>298500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7077.xlsx
+++ b/data/7077.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43563,6 +43563,76 @@
         <v>298500</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>7077</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>KPPROP</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.755</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>153400</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>7077</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>KPPROP</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>36900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7077.xlsx
+++ b/data/7077.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1232"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43633,6 +43633,41 @@
         <v>36900</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>7077</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>KPPROP</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>69000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7077.xlsx
+++ b/data/7077.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1232"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43668,6 +43668,41 @@
         <v>69000</v>
       </c>
     </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>7077</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>KPPROP</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>228000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7077.xlsx
+++ b/data/7077.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43703,6 +43703,41 @@
         <v>228000</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>7077</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>KPPROP</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>34500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7077.xlsx
+++ b/data/7077.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43738,6 +43738,41 @@
         <v>34500</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>7077</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>KPPROP</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>144900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7077.xlsx
+++ b/data/7077.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43773,6 +43773,76 @@
         <v>144900</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>7077</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>KPPROP</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>307900</v>
+      </c>
+    </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>7077</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>KPPROP</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>123300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7077.xlsx
+++ b/data/7077.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1238"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43843,6 +43843,41 @@
         <v>123300</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>7077</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>KPPROP</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>54800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7077.xlsx
+++ b/data/7077.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1238"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43878,6 +43878,41 @@
         <v>54800</v>
       </c>
     </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>7077</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>KPPROP</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>112700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7077.xlsx
+++ b/data/7077.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2528"/>
+  <dimension ref="A1:I2529"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89028,6 +89028,41 @@
         <v>112700</v>
       </c>
     </row>
+    <row r="2529">
+      <c r="A2529" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2529" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2529" t="inlineStr">
+        <is>
+          <t>7077</t>
+        </is>
+      </c>
+      <c r="D2529" t="inlineStr">
+        <is>
+          <t>KPPROP</t>
+        </is>
+      </c>
+      <c r="E2529" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F2529" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="G2529" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="H2529" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="I2529" t="n">
+        <v>129000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7077.xlsx
+++ b/data/7077.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2529"/>
+  <dimension ref="A1:I2530"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89063,6 +89063,41 @@
         <v>129000</v>
       </c>
     </row>
+    <row r="2530">
+      <c r="A2530" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2530" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2530" t="inlineStr">
+        <is>
+          <t>7077</t>
+        </is>
+      </c>
+      <c r="D2530" t="inlineStr">
+        <is>
+          <t>KPPROP</t>
+        </is>
+      </c>
+      <c r="E2530" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F2530" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G2530" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H2530" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="I2530" t="n">
+        <v>186100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7077.xlsx
+++ b/data/7077.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2530"/>
+  <dimension ref="A1:I2531"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89098,6 +89098,41 @@
         <v>186100</v>
       </c>
     </row>
+    <row r="2531">
+      <c r="A2531" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2531" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2531" t="inlineStr">
+        <is>
+          <t>7077</t>
+        </is>
+      </c>
+      <c r="D2531" t="inlineStr">
+        <is>
+          <t>KPPROP</t>
+        </is>
+      </c>
+      <c r="E2531" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="F2531" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="G2531" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="H2531" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="I2531" t="n">
+        <v>11500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7077.xlsx
+++ b/data/7077.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2531"/>
+  <dimension ref="A1:I2532"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89133,6 +89133,41 @@
         <v>11500</v>
       </c>
     </row>
+    <row r="2532">
+      <c r="A2532" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2532" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2532" t="inlineStr">
+        <is>
+          <t>7077</t>
+        </is>
+      </c>
+      <c r="D2532" t="inlineStr">
+        <is>
+          <t>KPPROP</t>
+        </is>
+      </c>
+      <c r="E2532" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="F2532" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="G2532" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="H2532" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="I2532" t="n">
+        <v>165000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7077.xlsx
+++ b/data/7077.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2532"/>
+  <dimension ref="A1:I2533"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89168,6 +89168,41 @@
         <v>165000</v>
       </c>
     </row>
+    <row r="2533">
+      <c r="A2533" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2533" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2533" t="inlineStr">
+        <is>
+          <t>7077</t>
+        </is>
+      </c>
+      <c r="D2533" t="inlineStr">
+        <is>
+          <t>KPPROP</t>
+        </is>
+      </c>
+      <c r="E2533" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F2533" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="G2533" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="H2533" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="I2533" t="n">
+        <v>152800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7077.xlsx
+++ b/data/7077.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2533"/>
+  <dimension ref="A1:I2534"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89203,6 +89203,41 @@
         <v>152800</v>
       </c>
     </row>
+    <row r="2534">
+      <c r="A2534" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2534" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2534" t="inlineStr">
+        <is>
+          <t>7077</t>
+        </is>
+      </c>
+      <c r="D2534" t="inlineStr">
+        <is>
+          <t>KPPROP</t>
+        </is>
+      </c>
+      <c r="E2534" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F2534" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="G2534" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="H2534" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="I2534" t="n">
+        <v>51500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7077.xlsx
+++ b/data/7077.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2534"/>
+  <dimension ref="A1:I2535"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89238,6 +89238,41 @@
         <v>51500</v>
       </c>
     </row>
+    <row r="2535">
+      <c r="A2535" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2535" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2535" t="inlineStr">
+        <is>
+          <t>7077</t>
+        </is>
+      </c>
+      <c r="D2535" t="inlineStr">
+        <is>
+          <t>KPPROP</t>
+        </is>
+      </c>
+      <c r="E2535" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F2535" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="G2535" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="H2535" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="I2535" t="n">
+        <v>93200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7077.xlsx
+++ b/data/7077.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2535"/>
+  <dimension ref="A1:I2536"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89273,6 +89273,41 @@
         <v>93200</v>
       </c>
     </row>
+    <row r="2536">
+      <c r="A2536" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2536" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2536" t="inlineStr">
+        <is>
+          <t>7077</t>
+        </is>
+      </c>
+      <c r="D2536" t="inlineStr">
+        <is>
+          <t>KPPROP</t>
+        </is>
+      </c>
+      <c r="E2536" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F2536" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="G2536" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H2536" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="I2536" t="n">
+        <v>183100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7077.xlsx
+++ b/data/7077.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2536"/>
+  <dimension ref="A1:I2537"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89308,6 +89308,41 @@
         <v>183100</v>
       </c>
     </row>
+    <row r="2537">
+      <c r="A2537" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2537" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2537" t="inlineStr">
+        <is>
+          <t>7077</t>
+        </is>
+      </c>
+      <c r="D2537" t="inlineStr">
+        <is>
+          <t>KPPROP</t>
+        </is>
+      </c>
+      <c r="E2537" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="F2537" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="G2537" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="H2537" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="I2537" t="n">
+        <v>124000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7077.xlsx
+++ b/data/7077.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2537"/>
+  <dimension ref="A1:I2538"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89343,6 +89343,41 @@
         <v>124000</v>
       </c>
     </row>
+    <row r="2538">
+      <c r="A2538" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2538" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2538" t="inlineStr">
+        <is>
+          <t>7077</t>
+        </is>
+      </c>
+      <c r="D2538" t="inlineStr">
+        <is>
+          <t>KPPROP</t>
+        </is>
+      </c>
+      <c r="E2538" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F2538" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G2538" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="H2538" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="I2538" t="n">
+        <v>180600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7077.xlsx
+++ b/data/7077.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2538"/>
+  <dimension ref="A1:I2539"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89378,6 +89378,41 @@
         <v>180600</v>
       </c>
     </row>
+    <row r="2539">
+      <c r="A2539" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2539" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2539" t="inlineStr">
+        <is>
+          <t>7077</t>
+        </is>
+      </c>
+      <c r="D2539" t="inlineStr">
+        <is>
+          <t>KPPROP</t>
+        </is>
+      </c>
+      <c r="E2539" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="F2539" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="G2539" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="H2539" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="I2539" t="n">
+        <v>92000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7077.xlsx
+++ b/data/7077.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2539"/>
+  <dimension ref="A1:I2540"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89413,6 +89413,41 @@
         <v>92000</v>
       </c>
     </row>
+    <row r="2540">
+      <c r="A2540" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2540" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2540" t="inlineStr">
+        <is>
+          <t>7077</t>
+        </is>
+      </c>
+      <c r="D2540" t="inlineStr">
+        <is>
+          <t>KPPROP</t>
+        </is>
+      </c>
+      <c r="E2540" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="F2540" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="G2540" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="H2540" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="I2540" t="n">
+        <v>56000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7077.xlsx
+++ b/data/7077.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2540"/>
+  <dimension ref="A1:I2541"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89448,6 +89448,41 @@
         <v>56000</v>
       </c>
     </row>
+    <row r="2541">
+      <c r="A2541" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2541" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2541" t="inlineStr">
+        <is>
+          <t>7077</t>
+        </is>
+      </c>
+      <c r="D2541" t="inlineStr">
+        <is>
+          <t>KPPROP</t>
+        </is>
+      </c>
+      <c r="E2541" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="F2541" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="G2541" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="H2541" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="I2541" t="n">
+        <v>268500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7077.xlsx
+++ b/data/7077.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2541"/>
+  <dimension ref="A1:I2542"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89483,6 +89483,41 @@
         <v>268500</v>
       </c>
     </row>
+    <row r="2542">
+      <c r="A2542" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2542" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2542" t="inlineStr">
+        <is>
+          <t>7077</t>
+        </is>
+      </c>
+      <c r="D2542" t="inlineStr">
+        <is>
+          <t>KPPROP</t>
+        </is>
+      </c>
+      <c r="E2542" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="F2542" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="G2542" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="H2542" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="I2542" t="n">
+        <v>182900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7077.xlsx
+++ b/data/7077.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2542"/>
+  <dimension ref="A1:I2543"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89518,6 +89518,41 @@
         <v>182900</v>
       </c>
     </row>
+    <row r="2543">
+      <c r="A2543" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2543" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2543" t="inlineStr">
+        <is>
+          <t>7077</t>
+        </is>
+      </c>
+      <c r="D2543" t="inlineStr">
+        <is>
+          <t>KPPROP</t>
+        </is>
+      </c>
+      <c r="E2543" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F2543" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G2543" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="H2543" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="I2543" t="n">
+        <v>55300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
